--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_6_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_6_square_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.04000000000032</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.413528314402514e-16</v>
+        <v>5.415722071342227e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>48.11139722793564</v>
+        <v>40.74124452340548</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[38.76971742118816, 57.45307703468312]</t>
+          <t>[31.0886152160626, 50.393873830748355]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.767342413731195</v>
+        <v>1.842816111114733</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.553500271144503, 1.9811845563178876]</t>
+          <t>[1.591237119836272, 2.094395102393195]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>65.49036294207281</v>
+        <v>63.50221131342981</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[59.79428025669313, 71.18644562745249]</t>
+          <t>[58.058628386021496, 68.94579424083813]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.27799799799823</v>
+        <v>17.01043043043066</v>
       </c>
       <c r="X2" t="n">
-        <v>16.45981981982004</v>
+        <v>16.04666666666688</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.09617617617641</v>
+        <v>17.97419419419444</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.78000000000028</v>
+        <v>23.84000000000029</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.413528314402514e-16</v>
+        <v>4.418798107960822e-15</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>50.46803467844556</v>
+        <v>44.88261407523098</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[37.88608142214202, 63.049987934749105]</t>
+          <t>[33.77427609838365, 55.9909520520783]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.030286966852145e-13</v>
+        <v>7.127631818093505e-14</v>
       </c>
       <c r="N3" t="n">
-        <v>1.030286966852145e-13</v>
+        <v>7.127631818093505e-14</v>
       </c>
       <c r="O3" t="n">
-        <v>1.301921279866041</v>
+        <v>1.46544762419704</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.0503422885875784, 1.553500271144503]</t>
+          <t>[1.1887107337907326, 1.7421845146033474]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>69.73562245687367</v>
+        <v>59.13842037402922</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[62.598001585178345, 76.873243328569]</t>
+          <t>[52.16947049878978, 66.10737024926866]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.85261261261283</v>
+        <v>18.27971971971994</v>
       </c>
       <c r="X3" t="n">
-        <v>17.90046046046066</v>
+        <v>17.22970970970992</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.804764764765</v>
+        <v>19.32972972972996</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_6_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_6_square_0.1_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.07000000000032</v>
+        <v>24.09000000000033</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,30 +580,30 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>5.415722071342227e-16</v>
+        <v>1.812609019796174e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>40.74124452340548</v>
+        <v>51.2634372354148</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[31.0886152160626, 50.393873830748355]</t>
+          <t>[42.503829260019884, 60.02304521080971]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.842816111114733</v>
+        <v>1.654131867655887</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.591237119836272, 2.094395102393195]</t>
+          <t>[1.4654476241970409, 1.8428161111147334]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>63.50221131342981</v>
+        <v>62.81945768834871</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[58.058628386021496, 68.94579424083813]</t>
+          <t>[57.270203923074256, 68.36871145362318]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.01043043043066</v>
+        <v>17.74798798798823</v>
       </c>
       <c r="X2" t="n">
-        <v>16.04666666666688</v>
+        <v>17.02456456456479</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.97419419419444</v>
+        <v>18.47141141141166</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.84000000000029</v>
+        <v>24.43000000000038</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>4.418798107960822e-15</v>
+        <v>1.812609019796174e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>44.88261407523098</v>
+        <v>52.8991363971292</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[33.77427609838365, 55.9909520520783]</t>
+          <t>[41.27771467972181, 64.52055811453658]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7.127631818093505e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="N3" t="n">
-        <v>7.127631818093505e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="O3" t="n">
-        <v>1.46544762419704</v>
+        <v>2.974921571867812</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.1887107337907326, 1.7421845146033474]</t>
+          <t>[2.72334258058935, 3.2265005631462738]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>59.13842037402922</v>
+        <v>63.64077216476922</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[52.16947049878978, 66.10737024926866]</t>
+          <t>[56.61162384700777, 70.66992048253067]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.27971971971994</v>
+        <v>12.86304304304324</v>
       </c>
       <c r="X3" t="n">
-        <v>17.22970970970992</v>
+        <v>11.88486486486505</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.32972972972996</v>
+        <v>13.84122122122144</v>
       </c>
     </row>
   </sheetData>
